--- a/Hachinski/MAP-Variables.xlsx
+++ b/Hachinski/MAP-Variables.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15986" uniqueCount="3400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15992" uniqueCount="3406">
   <si>
     <t>Name</t>
   </si>
@@ -10139,9 +10139,6 @@
     <t>Self-Report Cognitive Complaints</t>
   </si>
   <si>
-    <t>Blood Pressire</t>
-  </si>
-  <si>
     <t>Number of Gait measures - walks, timed up and go, back and forth</t>
   </si>
   <si>
@@ -10187,18 +10184,12 @@
     <t>Digit Ordering Test</t>
   </si>
   <si>
-    <t>Progressive Matrices</t>
-  </si>
-  <si>
     <t>East Boston Memory Test</t>
   </si>
   <si>
     <t>Symbol Digit Modalities Test</t>
   </si>
   <si>
-    <t>National Adult Reading Test</t>
-  </si>
-  <si>
     <t>Wide Range Achievment Test</t>
   </si>
   <si>
@@ -10221,6 +10212,33 @@
   </si>
   <si>
     <t>If yes, where are those data?</t>
+  </si>
+  <si>
+    <t>Blood Pressure</t>
+  </si>
+  <si>
+    <t>Progressive Matrices (non-verbal fluid intelligence)</t>
+  </si>
+  <si>
+    <t>EF/Cognition/Working Memory</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>Verbal</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Global Intelligence Measures</t>
+  </si>
+  <si>
+    <t>National Adult Reading Test (premorbid intelligence)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
@@ -65368,162 +65386,183 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.28515625" customWidth="1"/>
+    <col min="1" max="1" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3369</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" s="6" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3370</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3397</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>3371</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>3396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3372</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>3373</v>
       </c>
-      <c r="C5" t="s">
-        <v>3398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>3374</v>
       </c>
-      <c r="C6" t="s">
-        <v>3399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3381</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3382</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>3383</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>3384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>3385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>3386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>3387</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>3389</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>3391</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>3392</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3393</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>3394</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3395</v>
       </c>
     </row>
   </sheetData>
